--- a/TestCases/Back End/Login-BackEnd-TeamLead.xlsx
+++ b/TestCases/Back End/Login-BackEnd-TeamLead.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18801"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28D0F9B7-B550-4579-BF4C-3309342A5189}" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{28D0F9B7-B550-4579-BF4C-3309342A5189}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{D59BE804-901A-4402-B1D8-5EBDB4687D69}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Role: Team Lead</t>
   </si>
@@ -41,49 +41,28 @@
     <t>An error pops up saying that I need to fill out those field</t>
   </si>
   <si>
-    <t>A text pops up in email saying that the field is required</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>Step 2: Sign in with email filled out but no password</t>
   </si>
   <si>
     <t>An error pops up saying that I need to fill out the password field</t>
   </si>
   <si>
-    <t>A text pops up that says that the field is required</t>
-  </si>
-  <si>
     <t>Step 3: Sign in with password filled out but not email</t>
   </si>
   <si>
     <t>An error pops up saying that the email is required</t>
   </si>
   <si>
-    <t>A text pops up saying that email is required</t>
-  </si>
-  <si>
     <t>Step 4: Fill out the fields with the wrong information</t>
   </si>
   <si>
     <t>An error pops up saying that the email or password is wrong</t>
   </si>
   <si>
-    <t>I am redirected to the login page with no error telling why</t>
-  </si>
-  <si>
-    <t>Fail: There is no error saying why I was redirected to the login page</t>
-  </si>
-  <si>
     <t xml:space="preserve">Step 5: Fill out the fields with the correct information </t>
   </si>
   <si>
     <t>I am logged in with no errors.</t>
-  </si>
-  <si>
-    <t>I am redirected to the dashboard</t>
   </si>
 </sst>
 </file>
@@ -430,18 +409,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
-    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="54" customHeight="1">
@@ -465,77 +445,46 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="65.25" customHeight="1">
-      <c r="A2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="3" spans="1:6" ht="51.75" customHeight="1">
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="56.25" customHeight="1">
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="58.5" customHeight="1">
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="60.75" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60.75" customHeight="1">
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="60.75" customHeight="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestCases/Back End/Login-BackEnd-TeamLead.xlsx
+++ b/TestCases/Back End/Login-BackEnd-TeamLead.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18805"/>
   <workbookPr/>
   <xr:revisionPtr revIDLastSave="13" documentId="8_{28D0F9B7-B550-4579-BF4C-3309342A5189}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{D59BE804-901A-4402-B1D8-5EBDB4687D69}"/>
   <bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C1" sqref="A1:XFD1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
